--- a/analysis/results/Q3/alpha_diversity/alpha_diversity_results_terminal_ileum.xlsx
+++ b/analysis/results/Q3/alpha_diversity/alpha_diversity_results_terminal_ileum.xlsx
@@ -8,46 +8,23 @@
   <sheets>
     <sheet name="Richness" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Shannon" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Simpson" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pielou" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Comparison</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">Std..Error</t>
+    <t xml:space="preserve">Std. Error</t>
   </si>
   <si>
-    <t xml:space="preserve">t.value</t>
+    <t xml:space="preserve">t value</t>
   </si>
   <si>
-    <t xml:space="preserve">Pr...t..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.adj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_ibd vs Groupibd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">no_ibd , ibd - CZ vs NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_ibd vs Groupibd:CountryNO</t>
+    <t xml:space="preserve">Pr(&gt;|t|)</t>
   </si>
 </sst>
 </file>
@@ -392,83 +369,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" t="n">
+        <v>-5.13513513513522</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.1860465116278</v>
+        <v>13.89001208261</v>
       </c>
       <c r="C2" t="n">
-        <v>24.0410880178569</v>
+        <v>-0.369699832123567</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.71315235321447</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0898145279186033</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0898145279186033</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+        <v>0.711989651041148</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3" t="n">
+        <v>-0.000000000000148538661471357</v>
       </c>
       <c r="B3" t="n">
-        <v>-25.6363636363636</v>
+        <v>17.6522291986302</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4429867745349</v>
+        <v>-0.00000000000000841472540379677</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.934168129984754</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.352490098253323</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.352490098253323</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>0.999999999999993</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" t="n">
+        <v>-11.0940315315314</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5724101479915</v>
+        <v>19.3495406382797</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5323626814065</v>
+        <v>-0.573348573949286</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17066184378665</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.244544926381173</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.244544926381173</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>0.567040194460408</v>
       </c>
     </row>
   </sheetData>
@@ -498,295 +439,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" t="n">
+        <v>0.0341254929779996</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.438375028444108</v>
+        <v>0.182138414509696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324957983392675</v>
+        <v>0.187360217611771</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.34902064527641</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1804078096851</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1804078096851</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+        <v>0.851564426678931</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3" t="n">
+        <v>-0.0699611601256466</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.452787198419018</v>
+        <v>0.231472011664092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.370940684294357</v>
+        <v>-0.30224457645088</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.22064582719029</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.225119514479978</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.225119514479978</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>0.762773553212123</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" t="n">
+        <v>-0.171458262710699</v>
       </c>
       <c r="B4" t="n">
-        <v>0.47099428187855</v>
+        <v>0.253728696014566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.399182308830731</v>
+        <v>-0.675754321067635</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17989768448949</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.240868353722002</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.240868353722002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.0427087260465117</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0425523088717184</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.00367587985096</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.317981763215855</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.317981763215855</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.0473265200000002</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0485736106754035</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.974325757174258</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.332269522581454</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.332269522581454</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0452331255919663</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0522717697966667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.865345209621174</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.38894146918713</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.38894146918713</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.0415528280357736</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0456401967848096</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.910443665080856</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.364799977039656</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.364799977039656</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.0679810016492323</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0520984456203639</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-1.30485661980404</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.194966627476248</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.194966627476248</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0564357752661005</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0560649685779036</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.00661387489555</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.316574374235253</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.316574374235253</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>0.499961953198804</v>
       </c>
     </row>
   </sheetData>
